--- a/projects/test_building/input/Scenario_UnitUser.xlsx
+++ b/projects/test_building/input/Scenario_UnitUser.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D97374-907B-6447-AF6A-72396AF5A139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2B4652-6A31-1645-BBCD-1D1F40A1836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4600" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
-  <si>
-    <t>id_scenario</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>unit</t>
   </si>
@@ -181,10 +178,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q9" totalsRowShown="0">
-  <autoFilter ref="A1:Q9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P9" totalsRowShown="0">
+  <autoFilter ref="A1:P9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="16">
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="id_region"/>
     <tableColumn id="7" xr3:uid="{8D3F057E-E79A-644F-B285-449A127EBD2A}" name="id_sector"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="id_unit_user_type"/>
@@ -469,37 +465,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -523,37 +518,32 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N1" t="s">
         <v>2</v>
       </c>
       <c r="O1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -561,30 +551,27 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1">
+      <c r="M2" s="1">
         <v>0.19676806083650186</v>
       </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -592,30 +579,27 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1">
+      <c r="M3" s="1">
         <v>0.20532319391634976</v>
       </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -623,30 +607,27 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1">
+      <c r="M4" s="1">
         <v>0.16634980988593154</v>
       </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -654,30 +635,27 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
+      <c r="M5" s="1">
         <v>0.20247148288973379</v>
       </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -685,30 +663,27 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1">
+      <c r="M6" s="1">
         <v>8.1749049429657786E-2</v>
       </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -716,30 +691,27 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1">
+      <c r="M7" s="1">
         <v>9.8859315589353611E-2</v>
       </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -747,30 +719,27 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1">
+      <c r="M8" s="1">
         <v>4.8479087452471474E-2</v>
       </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -778,13 +747,12 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1">
+      <c r="M9" s="1">
         <v>1</v>
       </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/projects/test_building/input/Scenario_UnitUser.xlsx
+++ b/projects/test_building/input/Scenario_UnitUser.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2B4652-6A31-1645-BBCD-1D1F40A1836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD522ACB-9607-8647-B58D-254F165192DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27600" yWindow="-21100" windowWidth="23040" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={106C2961-2D1E-3849-88A6-C0781BAD9920}</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{106C2961-2D1E-3849-88A6-C0781BAD9920}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Calculated by Linda Roth in her master thesis.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>unit</t>
   </si>
@@ -66,15 +84,9 @@
     <t>2018</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>id_region</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>id_unit_user_type</t>
   </si>
   <si>
@@ -82,6 +94,9 @@
   </si>
   <si>
     <t>id_sector</t>
+  </si>
+  <si>
+    <t>2010</t>
   </si>
 </sst>
 </file>
@@ -91,13 +106,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,13 +148,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -177,26 +192,29 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P9" totalsRowShown="0">
-  <autoFilter ref="A1:P9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O9" totalsRowShown="0">
+  <autoFilter ref="A1:O9" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="15">
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="id_region"/>
     <tableColumn id="7" xr3:uid="{8D3F057E-E79A-644F-B285-449A127EBD2A}" name="id_sector"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="id_unit_user_type"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="unit"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2011" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2012" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2013" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2014" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2015" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2016" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2017" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2018" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2019" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2020" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2021" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2022" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4F82777E-C64B-4C45-96B5-A70432E9CAFB}" name="2010"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2011" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2012" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2013" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2014" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2015" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2016" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2017" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2018" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2019" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2020" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -463,12 +481,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N1" dT="2024-05-03T03:10:37.76" personId="{00000000-0000-0000-0000-000000000000}" id="{106C2961-2D1E-3849-88A6-C0781BAD9920}">
+    <text>Calculated by Linda Roth in her master thesis.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -477,60 +503,58 @@
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="13" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>1</v>
-      </c>
       <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>9</v>
       </c>
@@ -541,24 +565,43 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
       <c r="M2" s="1">
         <v>0.19676806083650186</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="N2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.19676806083650186</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>9</v>
       </c>
@@ -569,24 +612,43 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
       <c r="M3" s="1">
         <v>0.20532319391634976</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="N3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.20532319391634976</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -597,24 +659,43 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
       <c r="M4" s="1">
         <v>0.16634980988593154</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.16634980988593154</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -625,24 +706,43 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
       <c r="M5" s="1">
         <v>0.20247148288973379</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.20247148288973379</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>9</v>
       </c>
@@ -653,24 +753,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
       <c r="M6" s="1">
         <v>8.1749049429657786E-2</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8.1749049429657786E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -681,24 +800,43 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
       <c r="M7" s="1">
         <v>9.8859315589353611E-2</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="N7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>9.8859315589353611E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9</v>
       </c>
@@ -709,24 +847,43 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
       <c r="M8" s="1">
         <v>4.8479087452471474E-2</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4.8479087452471474E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -737,27 +894,47 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/projects/test_building/input/Scenario_UnitUser.xlsx
+++ b/projects/test_building/input/Scenario_UnitUser.xlsx
@@ -8,15 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0EA805-43C8-A74C-8E55-FDB6C1DDBDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E01FB-9BB4-9C42-BEC7-EED6CBD10EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38540" yWindow="-19520" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="-19100" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="note" sheetId="2" r:id="rId2"/>
+    <sheet name="test" sheetId="3" r:id="rId2"/>
+    <sheet name="note" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="49">
   <si>
     <t>id_region</t>
   </si>
@@ -255,7 +269,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -298,6 +312,12 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,6 +388,125 @@
     <tableColumn id="44" xr3:uid="{E48895D2-0830-604E-820E-28A17298978E}" name="2049"/>
     <tableColumn id="45" xr3:uid="{8D0C0CE3-17A1-834B-A43D-A72B4E1219E1}" name="2050"/>
     <tableColumn id="46" xr3:uid="{32CA693D-8AE9-A84F-B729-2C225749D5B9}" name="2051"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C6A3C05-8354-8243-B999-93436907BA41}" name="Table2" displayName="Table2" ref="A1:AT7" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:AT7" xr:uid="{7C6A3C05-8354-8243-B999-93436907BA41}"/>
+  <tableColumns count="46">
+    <tableColumn id="1" xr3:uid="{27F61A31-C289-1E4B-9B3B-69DB25760226}" name="id_region"/>
+    <tableColumn id="2" xr3:uid="{776E483B-3E91-964B-B156-86C66C271521}" name="id_sector"/>
+    <tableColumn id="3" xr3:uid="{ED9D09C1-975A-6B4E-9C81-BCA8AFCCEDA7}" name="id_unit_user_type"/>
+    <tableColumn id="4" xr3:uid="{8D5BC878-3291-5045-95B0-8B688F983E64}" name="unit"/>
+    <tableColumn id="5" xr3:uid="{17C35271-A8FB-AF47-88ED-DE02915F890D}" name="2010"/>
+    <tableColumn id="6" xr3:uid="{41BCB872-6C0A-C64E-8577-EBB5E6F83F34}" name="2011"/>
+    <tableColumn id="7" xr3:uid="{525CBB9B-3A9C-6B49-B7F5-E5F858E85CCE}" name="2012"/>
+    <tableColumn id="8" xr3:uid="{B4A7F882-45AF-684C-A13D-37914B65E6AA}" name="2013"/>
+    <tableColumn id="9" xr3:uid="{C521BC96-C721-A548-95C8-154B043DAFFE}" name="2014"/>
+    <tableColumn id="10" xr3:uid="{957DEAF0-8CBE-3543-AE37-4A9E5A48729B}" name="2015"/>
+    <tableColumn id="11" xr3:uid="{81F77BBA-A76A-FF46-B86F-8A8115A9E920}" name="2016"/>
+    <tableColumn id="12" xr3:uid="{05D56B21-FEB5-2849-8468-D33B48D02DF7}" name="2017"/>
+    <tableColumn id="13" xr3:uid="{C8C0A2E3-EAE7-5C46-B11D-B54DA1CF60E6}" name="2018"/>
+    <tableColumn id="14" xr3:uid="{8DCB2528-4855-A549-809B-0EE7B124DD1A}" name="2019"/>
+    <tableColumn id="15" xr3:uid="{ABF6D035-1A46-154A-B6BB-2F1138D8ECE3}" name="2020" dataDxfId="3">
+      <calculatedColumnFormula>Table2[[#This Row],[2019]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{41B040AB-92AB-5646-AF4A-DF36B729F6EC}" name="2021">
+      <calculatedColumnFormula>Table2[[#This Row],[2020]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{5CEA5EFA-39AC-8848-89A5-0BA56D8DEA37}" name="2022">
+      <calculatedColumnFormula>Table2[[#This Row],[2021]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{60254445-F10A-874F-BA27-023F41C392E9}" name="2023">
+      <calculatedColumnFormula>Table2[[#This Row],[2022]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{D96363C1-DF76-8C4C-ACEA-33CCB48B1DE1}" name="2024">
+      <calculatedColumnFormula>Table2[[#This Row],[2023]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{8BB41AE8-14A4-2748-9E55-59BF5859B7AE}" name="2025">
+      <calculatedColumnFormula>Table2[[#This Row],[2024]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{F75E557F-7AE1-D641-8500-ACF84CA33641}" name="2026">
+      <calculatedColumnFormula>Table2[[#This Row],[2025]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{92F1182E-AEE8-AD4B-9271-C9A0530B6C1F}" name="2027">
+      <calculatedColumnFormula>Table2[[#This Row],[2026]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{46360B99-68C6-C44B-BC23-F3693B892BDA}" name="2028">
+      <calculatedColumnFormula>Table2[[#This Row],[2027]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{6073776E-DEDD-B649-83D1-1C0939D0C7B6}" name="2029">
+      <calculatedColumnFormula>Table2[[#This Row],[2028]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{A55E9945-8F1C-7545-A79B-76B65E1259BF}" name="2030">
+      <calculatedColumnFormula>Table2[[#This Row],[2029]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{FDD1A5C6-B002-E944-B50A-7EC3B9F7053D}" name="2031">
+      <calculatedColumnFormula>Table2[[#This Row],[2030]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{CEE9F8A8-271F-4849-A273-7F8DCE73F634}" name="2032">
+      <calculatedColumnFormula>Table2[[#This Row],[2031]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="28" xr3:uid="{0057653B-FC8C-A84B-9E7F-671BA3EC3C69}" name="2033">
+      <calculatedColumnFormula>Table2[[#This Row],[2020]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" xr3:uid="{05643615-467B-2740-8F2F-2ECB56FCD0C7}" name="2034">
+      <calculatedColumnFormula>Table2[[#This Row],[2021]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="30" xr3:uid="{19760865-E071-B645-BBFA-5CD865FE8FAD}" name="2035">
+      <calculatedColumnFormula>Table2[[#This Row],[2022]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="31" xr3:uid="{268B0962-ADCE-4D44-B79D-FEF861A52A17}" name="2036">
+      <calculatedColumnFormula>Table2[[#This Row],[2023]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="32" xr3:uid="{C075CA3B-62B8-054F-B144-ED77D8614311}" name="2037">
+      <calculatedColumnFormula>Table2[[#This Row],[2024]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="33" xr3:uid="{C03C5218-A621-5646-9B97-C217A247CA1E}" name="2038">
+      <calculatedColumnFormula>Table2[[#This Row],[2025]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="34" xr3:uid="{9A4F0523-9CF0-CC48-BD82-E1A687D07DE1}" name="2039">
+      <calculatedColumnFormula>Table2[[#This Row],[2026]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="35" xr3:uid="{9B1A99BA-591C-134F-ADE8-27C8F3C6BFD5}" name="2040">
+      <calculatedColumnFormula>Table2[[#This Row],[2027]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="36" xr3:uid="{47088741-8A18-1E4F-9653-BDC73210DC33}" name="2041">
+      <calculatedColumnFormula>Table2[[#This Row],[2028]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="37" xr3:uid="{F2F2BEA5-52F0-1C45-84C2-8D078A141152}" name="2042">
+      <calculatedColumnFormula>Table2[[#This Row],[2029]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="38" xr3:uid="{68267EC5-1B07-CB4F-9215-6F89E2A4D9D3}" name="2043">
+      <calculatedColumnFormula>Table2[[#This Row],[2030]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="39" xr3:uid="{406769EE-2110-3A4D-A4EA-3B86295380BD}" name="2044">
+      <calculatedColumnFormula>Table2[[#This Row],[2031]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="40" xr3:uid="{55A970D3-EFF9-6144-9460-47560594D17E}" name="2045">
+      <calculatedColumnFormula>Table2[[#This Row],[2032]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="41" xr3:uid="{F4890AA1-E000-D942-AD6F-483B69F0A1CB}" name="2046">
+      <calculatedColumnFormula>Table2[[#This Row],[2021]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="42" xr3:uid="{B361615B-7F38-5C41-AACA-1DDC13052B53}" name="2047">
+      <calculatedColumnFormula>Table2[[#This Row],[2022]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="43" xr3:uid="{0C0B09C6-835A-2A4E-ADF8-6B1176145A17}" name="2048">
+      <calculatedColumnFormula>Table2[[#This Row],[2023]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="44" xr3:uid="{7A6EA573-5863-D749-8A56-9766EB5979F3}" name="2049">
+      <calculatedColumnFormula>Table2[[#This Row],[2024]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="45" xr3:uid="{993F7E2E-4069-9D4D-AD89-F192152333C2}" name="2050">
+      <calculatedColumnFormula>Table2[[#This Row],[2025]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="46" xr3:uid="{765869CD-309D-6A4F-B444-04309F592D00}" name="2051">
+      <calculatedColumnFormula>Table2[[#This Row],[2026]]*(1+0.02)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -668,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32752,11 +32891,1172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E9DD9-152E-1944-A8CF-F213F6599C5B}">
+  <dimension ref="A1:AT7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>90101</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>599212</v>
+      </c>
+      <c r="F2">
+        <v>599212</v>
+      </c>
+      <c r="G2">
+        <v>599212</v>
+      </c>
+      <c r="H2">
+        <v>599212</v>
+      </c>
+      <c r="I2">
+        <v>599212</v>
+      </c>
+      <c r="J2">
+        <v>599212</v>
+      </c>
+      <c r="K2">
+        <v>599212</v>
+      </c>
+      <c r="L2">
+        <v>599212</v>
+      </c>
+      <c r="M2">
+        <v>599212</v>
+      </c>
+      <c r="N2">
+        <v>599212</v>
+      </c>
+      <c r="O2">
+        <f>Table2[[#This Row],[2019]]*(1+0.02)</f>
+        <v>611196.24</v>
+      </c>
+      <c r="P2">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>623420.16480000003</v>
+      </c>
+      <c r="Q2">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>635888.568096</v>
+      </c>
+      <c r="R2">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>648606.33945792005</v>
+      </c>
+      <c r="S2">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>661578.4662470785</v>
+      </c>
+      <c r="T2">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>674810.0355720201</v>
+      </c>
+      <c r="U2">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>688306.23628346052</v>
+      </c>
+      <c r="V2">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>702072.36100912979</v>
+      </c>
+      <c r="W2">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>716113.80822931242</v>
+      </c>
+      <c r="X2">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>730436.08439389872</v>
+      </c>
+      <c r="Y2">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>745044.80608177674</v>
+      </c>
+      <c r="Z2">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>759945.70220341231</v>
+      </c>
+      <c r="AA2">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>775144.61624748062</v>
+      </c>
+      <c r="AB2">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>623420.16480000003</v>
+      </c>
+      <c r="AC2">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>635888.568096</v>
+      </c>
+      <c r="AD2">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>648606.33945792005</v>
+      </c>
+      <c r="AE2">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>661578.4662470785</v>
+      </c>
+      <c r="AF2">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>674810.0355720201</v>
+      </c>
+      <c r="AG2">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>688306.23628346052</v>
+      </c>
+      <c r="AH2">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>702072.36100912979</v>
+      </c>
+      <c r="AI2">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>716113.80822931242</v>
+      </c>
+      <c r="AJ2">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>730436.08439389872</v>
+      </c>
+      <c r="AK2">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>745044.80608177674</v>
+      </c>
+      <c r="AL2">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>759945.70220341231</v>
+      </c>
+      <c r="AM2">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>775144.61624748062</v>
+      </c>
+      <c r="AN2">
+        <f>Table2[[#This Row],[2032]]*(1+0.02)</f>
+        <v>790647.50857243023</v>
+      </c>
+      <c r="AO2">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>635888.568096</v>
+      </c>
+      <c r="AP2">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>648606.33945792005</v>
+      </c>
+      <c r="AQ2">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>661578.4662470785</v>
+      </c>
+      <c r="AR2">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>674810.0355720201</v>
+      </c>
+      <c r="AS2">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>688306.23628346052</v>
+      </c>
+      <c r="AT2">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>702072.36100912979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>90101</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>484257</v>
+      </c>
+      <c r="F3">
+        <v>484257</v>
+      </c>
+      <c r="G3">
+        <v>484257</v>
+      </c>
+      <c r="H3">
+        <v>484257</v>
+      </c>
+      <c r="I3">
+        <v>484257</v>
+      </c>
+      <c r="J3">
+        <v>484257</v>
+      </c>
+      <c r="K3">
+        <v>484257</v>
+      </c>
+      <c r="L3">
+        <v>484257</v>
+      </c>
+      <c r="M3">
+        <v>484257</v>
+      </c>
+      <c r="N3">
+        <v>484257</v>
+      </c>
+      <c r="O3">
+        <f>Table2[[#This Row],[2019]]*(1+0.02)</f>
+        <v>493942.14</v>
+      </c>
+      <c r="P3">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>503820.9828</v>
+      </c>
+      <c r="Q3">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>513897.40245599998</v>
+      </c>
+      <c r="R3">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>524175.35050512</v>
+      </c>
+      <c r="S3">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>534658.85751522239</v>
+      </c>
+      <c r="T3">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>545352.03466552682</v>
+      </c>
+      <c r="U3">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>556259.07535883738</v>
+      </c>
+      <c r="V3">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>567384.2568660141</v>
+      </c>
+      <c r="W3">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>578731.94200333441</v>
+      </c>
+      <c r="X3">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>590306.58084340114</v>
+      </c>
+      <c r="Y3">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>602112.71246026922</v>
+      </c>
+      <c r="Z3">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>614154.96670947457</v>
+      </c>
+      <c r="AA3">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>626438.06604366412</v>
+      </c>
+      <c r="AB3">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>503820.9828</v>
+      </c>
+      <c r="AC3">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>513897.40245599998</v>
+      </c>
+      <c r="AD3">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>524175.35050512</v>
+      </c>
+      <c r="AE3">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>534658.85751522239</v>
+      </c>
+      <c r="AF3">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>545352.03466552682</v>
+      </c>
+      <c r="AG3">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>556259.07535883738</v>
+      </c>
+      <c r="AH3">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>567384.2568660141</v>
+      </c>
+      <c r="AI3">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>578731.94200333441</v>
+      </c>
+      <c r="AJ3">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>590306.58084340114</v>
+      </c>
+      <c r="AK3">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>602112.71246026922</v>
+      </c>
+      <c r="AL3">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>614154.96670947457</v>
+      </c>
+      <c r="AM3">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>626438.06604366412</v>
+      </c>
+      <c r="AN3">
+        <f>Table2[[#This Row],[2032]]*(1+0.02)</f>
+        <v>638966.8273645374</v>
+      </c>
+      <c r="AO3">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>513897.40245599998</v>
+      </c>
+      <c r="AP3">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>524175.35050512</v>
+      </c>
+      <c r="AQ3">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>534658.85751522239</v>
+      </c>
+      <c r="AR3">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>545352.03466552682</v>
+      </c>
+      <c r="AS3">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>556259.07535883738</v>
+      </c>
+      <c r="AT3">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>567384.2568660141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>90101</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>460576</v>
+      </c>
+      <c r="F4">
+        <v>460576</v>
+      </c>
+      <c r="G4">
+        <v>460576</v>
+      </c>
+      <c r="H4">
+        <v>460576</v>
+      </c>
+      <c r="I4">
+        <v>460576</v>
+      </c>
+      <c r="J4">
+        <v>460576</v>
+      </c>
+      <c r="K4">
+        <v>460576</v>
+      </c>
+      <c r="L4">
+        <v>460576</v>
+      </c>
+      <c r="M4">
+        <v>460576</v>
+      </c>
+      <c r="N4">
+        <v>460576</v>
+      </c>
+      <c r="O4">
+        <f>Table2[[#This Row],[2019]]*(1+0.02)</f>
+        <v>469787.52</v>
+      </c>
+      <c r="P4">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>479183.27040000004</v>
+      </c>
+      <c r="Q4">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>488766.93580800004</v>
+      </c>
+      <c r="R4">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>498542.27452416002</v>
+      </c>
+      <c r="S4">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>508513.12001464324</v>
+      </c>
+      <c r="T4">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>518683.38241493609</v>
+      </c>
+      <c r="U4">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>529057.05006323487</v>
+      </c>
+      <c r="V4">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>539638.19106449955</v>
+      </c>
+      <c r="W4">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>550430.95488578954</v>
+      </c>
+      <c r="X4">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>561439.57398350537</v>
+      </c>
+      <c r="Y4">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>572668.36546317546</v>
+      </c>
+      <c r="Z4">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>584121.73277243902</v>
+      </c>
+      <c r="AA4">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>595804.16742788779</v>
+      </c>
+      <c r="AB4">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>479183.27040000004</v>
+      </c>
+      <c r="AC4">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>488766.93580800004</v>
+      </c>
+      <c r="AD4">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>498542.27452416002</v>
+      </c>
+      <c r="AE4">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>508513.12001464324</v>
+      </c>
+      <c r="AF4">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>518683.38241493609</v>
+      </c>
+      <c r="AG4">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>529057.05006323487</v>
+      </c>
+      <c r="AH4">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>539638.19106449955</v>
+      </c>
+      <c r="AI4">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>550430.95488578954</v>
+      </c>
+      <c r="AJ4">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>561439.57398350537</v>
+      </c>
+      <c r="AK4">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>572668.36546317546</v>
+      </c>
+      <c r="AL4">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>584121.73277243902</v>
+      </c>
+      <c r="AM4">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>595804.16742788779</v>
+      </c>
+      <c r="AN4">
+        <f>Table2[[#This Row],[2032]]*(1+0.02)</f>
+        <v>607720.25077644561</v>
+      </c>
+      <c r="AO4">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>488766.93580800004</v>
+      </c>
+      <c r="AP4">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>498542.27452416002</v>
+      </c>
+      <c r="AQ4">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>508513.12001464324</v>
+      </c>
+      <c r="AR4">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>518683.38241493609</v>
+      </c>
+      <c r="AS4">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>529057.05006323487</v>
+      </c>
+      <c r="AT4">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>539638.19106449955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>90101</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>114399</v>
+      </c>
+      <c r="F5">
+        <v>114399</v>
+      </c>
+      <c r="G5">
+        <v>114399</v>
+      </c>
+      <c r="H5">
+        <v>114399</v>
+      </c>
+      <c r="I5">
+        <v>114399</v>
+      </c>
+      <c r="J5">
+        <v>114399</v>
+      </c>
+      <c r="K5">
+        <v>114399</v>
+      </c>
+      <c r="L5">
+        <v>114399</v>
+      </c>
+      <c r="M5">
+        <v>114399</v>
+      </c>
+      <c r="N5">
+        <v>114399</v>
+      </c>
+      <c r="O5">
+        <f>Table2[[#This Row],[2019]]*(1+0.02)</f>
+        <v>116686.98</v>
+      </c>
+      <c r="P5">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>119020.7196</v>
+      </c>
+      <c r="Q5">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>121401.133992</v>
+      </c>
+      <c r="R5">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>123829.15667184</v>
+      </c>
+      <c r="S5">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>126305.7398052768</v>
+      </c>
+      <c r="T5">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>128831.85460138234</v>
+      </c>
+      <c r="U5">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>131408.49169340997</v>
+      </c>
+      <c r="V5">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>134036.66152727816</v>
+      </c>
+      <c r="W5">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>136717.39475782373</v>
+      </c>
+      <c r="X5">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>139451.7426529802</v>
+      </c>
+      <c r="Y5">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>142240.7775060398</v>
+      </c>
+      <c r="Z5">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>145085.59305616061</v>
+      </c>
+      <c r="AA5">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>147987.30491728382</v>
+      </c>
+      <c r="AB5">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>119020.7196</v>
+      </c>
+      <c r="AC5">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>121401.133992</v>
+      </c>
+      <c r="AD5">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>123829.15667184</v>
+      </c>
+      <c r="AE5">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>126305.7398052768</v>
+      </c>
+      <c r="AF5">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>128831.85460138234</v>
+      </c>
+      <c r="AG5">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>131408.49169340997</v>
+      </c>
+      <c r="AH5">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>134036.66152727816</v>
+      </c>
+      <c r="AI5">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>136717.39475782373</v>
+      </c>
+      <c r="AJ5">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>139451.7426529802</v>
+      </c>
+      <c r="AK5">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>142240.7775060398</v>
+      </c>
+      <c r="AL5">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>145085.59305616061</v>
+      </c>
+      <c r="AM5">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>147987.30491728382</v>
+      </c>
+      <c r="AN5">
+        <f>Table2[[#This Row],[2032]]*(1+0.02)</f>
+        <v>150947.05101562949</v>
+      </c>
+      <c r="AO5">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>121401.133992</v>
+      </c>
+      <c r="AP5">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>123829.15667184</v>
+      </c>
+      <c r="AQ5">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>126305.7398052768</v>
+      </c>
+      <c r="AR5">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>128831.85460138234</v>
+      </c>
+      <c r="AS5">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>131408.49169340997</v>
+      </c>
+      <c r="AT5">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>134036.66152727816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>90101</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>64729</v>
+      </c>
+      <c r="F6">
+        <v>64729</v>
+      </c>
+      <c r="G6">
+        <v>64729</v>
+      </c>
+      <c r="H6">
+        <v>64729</v>
+      </c>
+      <c r="I6">
+        <v>64729</v>
+      </c>
+      <c r="J6">
+        <v>64729</v>
+      </c>
+      <c r="K6">
+        <v>64729</v>
+      </c>
+      <c r="L6">
+        <v>64729</v>
+      </c>
+      <c r="M6">
+        <v>64729</v>
+      </c>
+      <c r="N6">
+        <v>64729</v>
+      </c>
+      <c r="O6">
+        <f>Table2[[#This Row],[2019]]*(1+0.02)</f>
+        <v>66023.58</v>
+      </c>
+      <c r="P6">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>67344.051600000006</v>
+      </c>
+      <c r="Q6">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>68690.932632000011</v>
+      </c>
+      <c r="R6">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>70064.751284640006</v>
+      </c>
+      <c r="S6">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>71466.046310332807</v>
+      </c>
+      <c r="T6">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>72895.36723653946</v>
+      </c>
+      <c r="U6">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>74353.274581270249</v>
+      </c>
+      <c r="V6">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>75840.340072895662</v>
+      </c>
+      <c r="W6">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>77357.146874353581</v>
+      </c>
+      <c r="X6">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>78904.289811840659</v>
+      </c>
+      <c r="Y6">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>80482.375608077476</v>
+      </c>
+      <c r="Z6">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>82092.023120239028</v>
+      </c>
+      <c r="AA6">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>83733.863582643811</v>
+      </c>
+      <c r="AB6">
+        <f>Table2[[#This Row],[2020]]*(1+0.02)</f>
+        <v>67344.051600000006</v>
+      </c>
+      <c r="AC6">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>68690.932632000011</v>
+      </c>
+      <c r="AD6">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>70064.751284640006</v>
+      </c>
+      <c r="AE6">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>71466.046310332807</v>
+      </c>
+      <c r="AF6">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>72895.36723653946</v>
+      </c>
+      <c r="AG6">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>74353.274581270249</v>
+      </c>
+      <c r="AH6">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>75840.340072895662</v>
+      </c>
+      <c r="AI6">
+        <f>Table2[[#This Row],[2027]]*(1+0.02)</f>
+        <v>77357.146874353581</v>
+      </c>
+      <c r="AJ6">
+        <f>Table2[[#This Row],[2028]]*(1+0.02)</f>
+        <v>78904.289811840659</v>
+      </c>
+      <c r="AK6">
+        <f>Table2[[#This Row],[2029]]*(1+0.02)</f>
+        <v>80482.375608077476</v>
+      </c>
+      <c r="AL6">
+        <f>Table2[[#This Row],[2030]]*(1+0.02)</f>
+        <v>82092.023120239028</v>
+      </c>
+      <c r="AM6">
+        <f>Table2[[#This Row],[2031]]*(1+0.02)</f>
+        <v>83733.863582643811</v>
+      </c>
+      <c r="AN6">
+        <f>Table2[[#This Row],[2032]]*(1+0.02)</f>
+        <v>85408.540854296691</v>
+      </c>
+      <c r="AO6">
+        <f>Table2[[#This Row],[2021]]*(1+0.02)</f>
+        <v>68690.932632000011</v>
+      </c>
+      <c r="AP6">
+        <f>Table2[[#This Row],[2022]]*(1+0.02)</f>
+        <v>70064.751284640006</v>
+      </c>
+      <c r="AQ6">
+        <f>Table2[[#This Row],[2023]]*(1+0.02)</f>
+        <v>71466.046310332807</v>
+      </c>
+      <c r="AR6">
+        <f>Table2[[#This Row],[2024]]*(1+0.02)</f>
+        <v>72895.36723653946</v>
+      </c>
+      <c r="AS6">
+        <f>Table2[[#This Row],[2025]]*(1+0.02)</f>
+        <v>74353.274581270249</v>
+      </c>
+      <c r="AT6">
+        <f>Table2[[#This Row],[2026]]*(1+0.02)</f>
+        <v>75840.340072895662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>90101</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>999999999</v>
+      </c>
+      <c r="F7">
+        <v>999999999</v>
+      </c>
+      <c r="G7">
+        <v>999999999</v>
+      </c>
+      <c r="H7">
+        <v>999999999</v>
+      </c>
+      <c r="I7">
+        <v>999999999</v>
+      </c>
+      <c r="J7">
+        <v>999999999</v>
+      </c>
+      <c r="K7">
+        <v>999999999</v>
+      </c>
+      <c r="L7">
+        <v>999999999</v>
+      </c>
+      <c r="M7">
+        <v>999999999</v>
+      </c>
+      <c r="N7">
+        <v>999999999</v>
+      </c>
+      <c r="O7">
+        <v>999999999</v>
+      </c>
+      <c r="P7">
+        <v>999999999</v>
+      </c>
+      <c r="Q7">
+        <v>999999999</v>
+      </c>
+      <c r="R7">
+        <v>999999999</v>
+      </c>
+      <c r="S7">
+        <v>999999999</v>
+      </c>
+      <c r="T7">
+        <v>999999999</v>
+      </c>
+      <c r="U7">
+        <v>999999999</v>
+      </c>
+      <c r="V7">
+        <v>999999999</v>
+      </c>
+      <c r="W7">
+        <v>999999999</v>
+      </c>
+      <c r="X7">
+        <v>999999999</v>
+      </c>
+      <c r="Y7">
+        <v>999999999</v>
+      </c>
+      <c r="Z7">
+        <v>999999999</v>
+      </c>
+      <c r="AA7">
+        <v>999999999</v>
+      </c>
+      <c r="AB7">
+        <v>999999999</v>
+      </c>
+      <c r="AC7">
+        <v>999999999</v>
+      </c>
+      <c r="AD7">
+        <v>999999999</v>
+      </c>
+      <c r="AE7">
+        <v>999999999</v>
+      </c>
+      <c r="AF7">
+        <v>999999999</v>
+      </c>
+      <c r="AG7">
+        <v>999999999</v>
+      </c>
+      <c r="AH7">
+        <v>999999999</v>
+      </c>
+      <c r="AI7">
+        <v>999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>999999999</v>
+      </c>
+      <c r="AK7">
+        <v>999999999</v>
+      </c>
+      <c r="AL7">
+        <v>999999999</v>
+      </c>
+      <c r="AM7">
+        <v>999999999</v>
+      </c>
+      <c r="AN7">
+        <v>999999999</v>
+      </c>
+      <c r="AO7">
+        <v>999999999</v>
+      </c>
+      <c r="AP7">
+        <v>999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>999999999</v>
+      </c>
+      <c r="AR7">
+        <v>999999999</v>
+      </c>
+      <c r="AS7">
+        <v>999999999</v>
+      </c>
+      <c r="AT7">
+        <v>999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6C3587-BAF8-2F4A-9235-8035B0E0CE80}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/projects/test_building/input/Scenario_UnitUser.xlsx
+++ b/projects/test_building/input/Scenario_UnitUser.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E01FB-9BB4-9C42-BEC7-EED6CBD10EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="-19100" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="-19095" windowWidth="30240" windowHeight="17385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="3" r:id="rId2"/>
     <sheet name="note" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,17 +34,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={1AF097FD-75E1-8640-8A8A-4CA4E2C4C52C}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1AF097FD-75E1-8640-8A8A-4CA4E2C4C52C}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Calculated with eurostat data and copied to other columns</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -53,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="50">
   <si>
     <t>id_region</t>
   </si>
@@ -201,11 +209,14 @@
   <si>
     <t>This table needs to have one more year than the simulation horizon.</t>
   </si>
+  <si>
+    <t>values copied from 2011</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,6 +282,12 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
@@ -298,7 +315,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -312,12 +328,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -339,172 +349,172 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0511529-47A7-644F-896E-747A4AA7B206}" name="Table1" displayName="Table1" ref="A1:AT229" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:AT229" xr:uid="{F0511529-47A7-644F-896E-747A4AA7B206}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AT229" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:AT229"/>
   <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{617A5317-DB27-BA49-86B2-E2369F19BF2C}" name="id_region"/>
-    <tableColumn id="2" xr3:uid="{B2824854-ED01-9149-99D5-BB13F77A267C}" name="id_sector"/>
-    <tableColumn id="3" xr3:uid="{66BAE7C6-A5F0-E542-9DF7-09555FED5300}" name="id_unit_user_type"/>
-    <tableColumn id="5" xr3:uid="{642044BC-A6CE-CC47-923E-58CAD7386B4C}" name="unit"/>
-    <tableColumn id="6" xr3:uid="{351E9D40-88E4-6540-AF28-245929A67989}" name="2010"/>
-    <tableColumn id="4" xr3:uid="{8168A449-CF13-654D-8A8F-811EF1A0E439}" name="2011"/>
-    <tableColumn id="7" xr3:uid="{DB40D058-C850-0F47-A64D-61AC2D61CDC0}" name="2012"/>
-    <tableColumn id="8" xr3:uid="{17376CE4-0624-A54C-AFCD-53212EA2E219}" name="2013"/>
-    <tableColumn id="9" xr3:uid="{4A7AD043-DBEF-5140-B548-A2C08A0409DC}" name="2014"/>
-    <tableColumn id="10" xr3:uid="{C1E72548-B519-5D49-BF62-FA6AD7AC21B6}" name="2015"/>
-    <tableColumn id="11" xr3:uid="{B4E08067-40F0-DC45-AC1C-D6DCDC602086}" name="2016"/>
-    <tableColumn id="12" xr3:uid="{98AB17BE-9860-8C42-8118-259C62BD31BD}" name="2017"/>
-    <tableColumn id="13" xr3:uid="{D2D78E0C-5771-CB4C-94F0-0299EC9A301C}" name="2018"/>
-    <tableColumn id="14" xr3:uid="{8D4F8675-1A11-E74B-822F-D3B64E2ABFFF}" name="2019"/>
-    <tableColumn id="15" xr3:uid="{73388BF5-5074-4145-A500-68750C30757C}" name="2020"/>
-    <tableColumn id="16" xr3:uid="{FD446DD0-7793-D14A-9D3D-ACAC4F67A5F1}" name="2021"/>
-    <tableColumn id="17" xr3:uid="{708640D2-EA7D-1242-81FA-9FEC1FF539B3}" name="2022"/>
-    <tableColumn id="18" xr3:uid="{9B95982A-C3C3-774B-B631-24A77F3A6CE2}" name="2023"/>
-    <tableColumn id="19" xr3:uid="{1D96EDE9-3AB2-A444-BF82-DA0FBF02BD2B}" name="2024"/>
-    <tableColumn id="20" xr3:uid="{BD5E092E-4DE7-E641-BD1C-ECBAFF267030}" name="2025"/>
-    <tableColumn id="21" xr3:uid="{42AF6516-6777-8343-BF03-F3E21A942106}" name="2026"/>
-    <tableColumn id="22" xr3:uid="{516241EB-5912-1846-995B-45D243C31E62}" name="2027"/>
-    <tableColumn id="23" xr3:uid="{317C3E89-DDF6-2D40-9C40-875E7D248796}" name="2028"/>
-    <tableColumn id="24" xr3:uid="{422A2118-EF52-6D47-9889-32BDC779BC25}" name="2029"/>
-    <tableColumn id="25" xr3:uid="{564F25BA-DAD5-1D45-A4CB-3D2259D38CEE}" name="2030"/>
-    <tableColumn id="26" xr3:uid="{131D26D6-B864-104F-B491-54D276A51B3D}" name="2031"/>
-    <tableColumn id="27" xr3:uid="{97DD1EDA-A2D8-DF4D-9EB5-7C9F0E2DA94D}" name="2032"/>
-    <tableColumn id="28" xr3:uid="{B3B82F8A-3351-314F-A0E6-87B273C8846D}" name="2033"/>
-    <tableColumn id="29" xr3:uid="{BCFACB53-3F94-9A49-B567-94292DA6A9B0}" name="2034"/>
-    <tableColumn id="30" xr3:uid="{262E595F-B1F3-DA47-9397-EB90736392B6}" name="2035"/>
-    <tableColumn id="31" xr3:uid="{62BEA6B0-F373-8F4C-8222-A85665DB8E2D}" name="2036"/>
-    <tableColumn id="32" xr3:uid="{26D4B160-36A6-5744-B1D8-69375C4C994F}" name="2037"/>
-    <tableColumn id="33" xr3:uid="{4AEA7AB6-801A-8540-AFFF-6A7124E3ED8D}" name="2038"/>
-    <tableColumn id="34" xr3:uid="{BD944C5F-D9C3-D447-BDB9-B20C9B21D884}" name="2039"/>
-    <tableColumn id="35" xr3:uid="{4B844B90-40CC-9543-B92F-7C12F479297D}" name="2040"/>
-    <tableColumn id="36" xr3:uid="{9D97AE2C-98A2-1345-A399-CA147775F57F}" name="2041"/>
-    <tableColumn id="37" xr3:uid="{48490FA9-EB9C-1943-BF33-5BFC1A5B0125}" name="2042"/>
-    <tableColumn id="38" xr3:uid="{18C53DD6-0366-674A-86DD-95E63DCA40CB}" name="2043"/>
-    <tableColumn id="39" xr3:uid="{7DF8BBD0-BE1B-214A-B7DB-2FD2AC9D3BEA}" name="2044"/>
-    <tableColumn id="40" xr3:uid="{D1C5B887-691D-454F-99EC-074A25643211}" name="2045"/>
-    <tableColumn id="41" xr3:uid="{241B9F69-CAAB-0241-83C6-564E8766E175}" name="2046"/>
-    <tableColumn id="42" xr3:uid="{69212C37-8306-904B-8B2B-D6E2A28FE81D}" name="2047"/>
-    <tableColumn id="43" xr3:uid="{C9F8ACF4-7D83-1245-BF4F-04657F2EE1D8}" name="2048"/>
-    <tableColumn id="44" xr3:uid="{E48895D2-0830-604E-820E-28A17298978E}" name="2049"/>
-    <tableColumn id="45" xr3:uid="{8D0C0CE3-17A1-834B-A43D-A72B4E1219E1}" name="2050"/>
-    <tableColumn id="46" xr3:uid="{32CA693D-8AE9-A84F-B729-2C225749D5B9}" name="2051"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="2" name="id_sector"/>
+    <tableColumn id="3" name="id_unit_user_type"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="6" name="2010"/>
+    <tableColumn id="4" name="2011"/>
+    <tableColumn id="7" name="2012"/>
+    <tableColumn id="8" name="2013"/>
+    <tableColumn id="9" name="2014"/>
+    <tableColumn id="10" name="2015"/>
+    <tableColumn id="11" name="2016"/>
+    <tableColumn id="12" name="2017"/>
+    <tableColumn id="13" name="2018"/>
+    <tableColumn id="14" name="2019"/>
+    <tableColumn id="15" name="2020"/>
+    <tableColumn id="16" name="2021"/>
+    <tableColumn id="17" name="2022"/>
+    <tableColumn id="18" name="2023"/>
+    <tableColumn id="19" name="2024"/>
+    <tableColumn id="20" name="2025"/>
+    <tableColumn id="21" name="2026"/>
+    <tableColumn id="22" name="2027"/>
+    <tableColumn id="23" name="2028"/>
+    <tableColumn id="24" name="2029"/>
+    <tableColumn id="25" name="2030"/>
+    <tableColumn id="26" name="2031"/>
+    <tableColumn id="27" name="2032"/>
+    <tableColumn id="28" name="2033"/>
+    <tableColumn id="29" name="2034"/>
+    <tableColumn id="30" name="2035"/>
+    <tableColumn id="31" name="2036"/>
+    <tableColumn id="32" name="2037"/>
+    <tableColumn id="33" name="2038"/>
+    <tableColumn id="34" name="2039"/>
+    <tableColumn id="35" name="2040"/>
+    <tableColumn id="36" name="2041"/>
+    <tableColumn id="37" name="2042"/>
+    <tableColumn id="38" name="2043"/>
+    <tableColumn id="39" name="2044"/>
+    <tableColumn id="40" name="2045"/>
+    <tableColumn id="41" name="2046"/>
+    <tableColumn id="42" name="2047"/>
+    <tableColumn id="43" name="2048"/>
+    <tableColumn id="44" name="2049"/>
+    <tableColumn id="45" name="2050"/>
+    <tableColumn id="46" name="2051"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C6A3C05-8354-8243-B999-93436907BA41}" name="Table2" displayName="Table2" ref="A1:AT7" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:AT7" xr:uid="{7C6A3C05-8354-8243-B999-93436907BA41}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:AT7"/>
   <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{27F61A31-C289-1E4B-9B3B-69DB25760226}" name="id_region"/>
-    <tableColumn id="2" xr3:uid="{776E483B-3E91-964B-B156-86C66C271521}" name="id_sector"/>
-    <tableColumn id="3" xr3:uid="{ED9D09C1-975A-6B4E-9C81-BCA8AFCCEDA7}" name="id_unit_user_type"/>
-    <tableColumn id="4" xr3:uid="{8D5BC878-3291-5045-95B0-8B688F983E64}" name="unit"/>
-    <tableColumn id="5" xr3:uid="{17C35271-A8FB-AF47-88ED-DE02915F890D}" name="2010"/>
-    <tableColumn id="6" xr3:uid="{41BCB872-6C0A-C64E-8577-EBB5E6F83F34}" name="2011"/>
-    <tableColumn id="7" xr3:uid="{525CBB9B-3A9C-6B49-B7F5-E5F858E85CCE}" name="2012"/>
-    <tableColumn id="8" xr3:uid="{B4A7F882-45AF-684C-A13D-37914B65E6AA}" name="2013"/>
-    <tableColumn id="9" xr3:uid="{C521BC96-C721-A548-95C8-154B043DAFFE}" name="2014"/>
-    <tableColumn id="10" xr3:uid="{957DEAF0-8CBE-3543-AE37-4A9E5A48729B}" name="2015"/>
-    <tableColumn id="11" xr3:uid="{81F77BBA-A76A-FF46-B86F-8A8115A9E920}" name="2016"/>
-    <tableColumn id="12" xr3:uid="{05D56B21-FEB5-2849-8468-D33B48D02DF7}" name="2017"/>
-    <tableColumn id="13" xr3:uid="{C8C0A2E3-EAE7-5C46-B11D-B54DA1CF60E6}" name="2018"/>
-    <tableColumn id="14" xr3:uid="{8DCB2528-4855-A549-809B-0EE7B124DD1A}" name="2019"/>
-    <tableColumn id="15" xr3:uid="{ABF6D035-1A46-154A-B6BB-2F1138D8ECE3}" name="2020" dataDxfId="3">
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="2" name="id_sector"/>
+    <tableColumn id="3" name="id_unit_user_type"/>
+    <tableColumn id="4" name="unit"/>
+    <tableColumn id="5" name="2010"/>
+    <tableColumn id="6" name="2011"/>
+    <tableColumn id="7" name="2012"/>
+    <tableColumn id="8" name="2013"/>
+    <tableColumn id="9" name="2014"/>
+    <tableColumn id="10" name="2015"/>
+    <tableColumn id="11" name="2016"/>
+    <tableColumn id="12" name="2017"/>
+    <tableColumn id="13" name="2018"/>
+    <tableColumn id="14" name="2019"/>
+    <tableColumn id="15" name="2020" dataDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[2019]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{41B040AB-92AB-5646-AF4A-DF36B729F6EC}" name="2021">
+    <tableColumn id="16" name="2021">
       <calculatedColumnFormula>Table2[[#This Row],[2020]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{5CEA5EFA-39AC-8848-89A5-0BA56D8DEA37}" name="2022">
+    <tableColumn id="17" name="2022">
       <calculatedColumnFormula>Table2[[#This Row],[2021]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{60254445-F10A-874F-BA27-023F41C392E9}" name="2023">
+    <tableColumn id="18" name="2023">
       <calculatedColumnFormula>Table2[[#This Row],[2022]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D96363C1-DF76-8C4C-ACEA-33CCB48B1DE1}" name="2024">
+    <tableColumn id="19" name="2024">
       <calculatedColumnFormula>Table2[[#This Row],[2023]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{8BB41AE8-14A4-2748-9E55-59BF5859B7AE}" name="2025">
+    <tableColumn id="20" name="2025">
       <calculatedColumnFormula>Table2[[#This Row],[2024]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{F75E557F-7AE1-D641-8500-ACF84CA33641}" name="2026">
+    <tableColumn id="21" name="2026">
       <calculatedColumnFormula>Table2[[#This Row],[2025]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{92F1182E-AEE8-AD4B-9271-C9A0530B6C1F}" name="2027">
+    <tableColumn id="22" name="2027">
       <calculatedColumnFormula>Table2[[#This Row],[2026]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{46360B99-68C6-C44B-BC23-F3693B892BDA}" name="2028">
+    <tableColumn id="23" name="2028">
       <calculatedColumnFormula>Table2[[#This Row],[2027]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{6073776E-DEDD-B649-83D1-1C0939D0C7B6}" name="2029">
+    <tableColumn id="24" name="2029">
       <calculatedColumnFormula>Table2[[#This Row],[2028]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{A55E9945-8F1C-7545-A79B-76B65E1259BF}" name="2030">
+    <tableColumn id="25" name="2030">
       <calculatedColumnFormula>Table2[[#This Row],[2029]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{FDD1A5C6-B002-E944-B50A-7EC3B9F7053D}" name="2031">
+    <tableColumn id="26" name="2031">
       <calculatedColumnFormula>Table2[[#This Row],[2030]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{CEE9F8A8-271F-4849-A273-7F8DCE73F634}" name="2032">
+    <tableColumn id="27" name="2032">
       <calculatedColumnFormula>Table2[[#This Row],[2031]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{0057653B-FC8C-A84B-9E7F-671BA3EC3C69}" name="2033">
+    <tableColumn id="28" name="2033">
       <calculatedColumnFormula>Table2[[#This Row],[2020]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{05643615-467B-2740-8F2F-2ECB56FCD0C7}" name="2034">
+    <tableColumn id="29" name="2034">
       <calculatedColumnFormula>Table2[[#This Row],[2021]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{19760865-E071-B645-BBFA-5CD865FE8FAD}" name="2035">
+    <tableColumn id="30" name="2035">
       <calculatedColumnFormula>Table2[[#This Row],[2022]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{268B0962-ADCE-4D44-B79D-FEF861A52A17}" name="2036">
+    <tableColumn id="31" name="2036">
       <calculatedColumnFormula>Table2[[#This Row],[2023]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{C075CA3B-62B8-054F-B144-ED77D8614311}" name="2037">
+    <tableColumn id="32" name="2037">
       <calculatedColumnFormula>Table2[[#This Row],[2024]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{C03C5218-A621-5646-9B97-C217A247CA1E}" name="2038">
+    <tableColumn id="33" name="2038">
       <calculatedColumnFormula>Table2[[#This Row],[2025]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{9A4F0523-9CF0-CC48-BD82-E1A687D07DE1}" name="2039">
+    <tableColumn id="34" name="2039">
       <calculatedColumnFormula>Table2[[#This Row],[2026]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{9B1A99BA-591C-134F-ADE8-27C8F3C6BFD5}" name="2040">
+    <tableColumn id="35" name="2040">
       <calculatedColumnFormula>Table2[[#This Row],[2027]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{47088741-8A18-1E4F-9653-BDC73210DC33}" name="2041">
+    <tableColumn id="36" name="2041">
       <calculatedColumnFormula>Table2[[#This Row],[2028]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{F2F2BEA5-52F0-1C45-84C2-8D078A141152}" name="2042">
+    <tableColumn id="37" name="2042">
       <calculatedColumnFormula>Table2[[#This Row],[2029]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{68267EC5-1B07-CB4F-9215-6F89E2A4D9D3}" name="2043">
+    <tableColumn id="38" name="2043">
       <calculatedColumnFormula>Table2[[#This Row],[2030]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{406769EE-2110-3A4D-A4EA-3B86295380BD}" name="2044">
+    <tableColumn id="39" name="2044">
       <calculatedColumnFormula>Table2[[#This Row],[2031]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{55A970D3-EFF9-6144-9460-47560594D17E}" name="2045">
+    <tableColumn id="40" name="2045">
       <calculatedColumnFormula>Table2[[#This Row],[2032]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{F4890AA1-E000-D942-AD6F-483B69F0A1CB}" name="2046">
+    <tableColumn id="41" name="2046">
       <calculatedColumnFormula>Table2[[#This Row],[2021]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{B361615B-7F38-5C41-AACA-1DDC13052B53}" name="2047">
+    <tableColumn id="42" name="2047">
       <calculatedColumnFormula>Table2[[#This Row],[2022]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{0C0B09C6-835A-2A4E-ADF8-6B1176145A17}" name="2048">
+    <tableColumn id="43" name="2048">
       <calculatedColumnFormula>Table2[[#This Row],[2023]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{7A6EA573-5863-D749-8A56-9766EB5979F3}" name="2049">
+    <tableColumn id="44" name="2049">
       <calculatedColumnFormula>Table2[[#This Row],[2024]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{993F7E2E-4069-9D4D-AD89-F192152333C2}" name="2050">
+    <tableColumn id="45" name="2050">
       <calculatedColumnFormula>Table2[[#This Row],[2025]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{765869CD-309D-6A4F-B444-04309F592D00}" name="2051">
+    <tableColumn id="46" name="2051">
       <calculatedColumnFormula>Table2[[#This Row],[2026]]*(1+0.02)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -804,23 +814,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>90101</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>599212</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>90101</v>
       </c>
@@ -1240,7 +1250,7 @@
         <v>484257</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>90101</v>
       </c>
@@ -1380,7 +1390,7 @@
         <v>460576</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>90101</v>
       </c>
@@ -1520,7 +1530,7 @@
         <v>114399</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90101</v>
       </c>
@@ -1660,7 +1670,7 @@
         <v>64729</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>90102</v>
       </c>
@@ -1800,7 +1810,7 @@
         <v>440387</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>90102</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>335036</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>90102</v>
       </c>
@@ -2080,7 +2090,7 @@
         <v>295285</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>90102</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>82659</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90102</v>
       </c>
@@ -2360,7 +2370,7 @@
         <v>49296</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90103</v>
       </c>
@@ -2500,7 +2510,7 @@
         <v>332253</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>90103</v>
       </c>
@@ -2640,7 +2650,7 @@
         <v>264353</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>90103</v>
       </c>
@@ -2780,7 +2790,7 @@
         <v>244382</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>90103</v>
       </c>
@@ -2920,7 +2930,7 @@
         <v>66474</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>90103</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>37290</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>90104</v>
       </c>
@@ -3200,7 +3210,7 @@
         <v>246023</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>90104</v>
       </c>
@@ -3340,7 +3350,7 @@
         <v>207103</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>90104</v>
       </c>
@@ -3480,7 +3490,7 @@
         <v>213648</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90104</v>
       </c>
@@ -3620,7 +3630,7 @@
         <v>52018</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90104</v>
       </c>
@@ -3760,7 +3770,7 @@
         <v>29158</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>90201</v>
       </c>
@@ -3900,7 +3910,7 @@
         <v>780658</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>90201</v>
       </c>
@@ -4040,7 +4050,7 @@
         <v>514337</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>90201</v>
       </c>
@@ -4180,7 +4190,7 @@
         <v>479008</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>90201</v>
       </c>
@@ -4320,7 +4330,7 @@
         <v>132665</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>90201</v>
       </c>
@@ -4460,7 +4470,7 @@
         <v>83614</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>90202</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>150867</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>90202</v>
       </c>
@@ -4740,7 +4750,7 @@
         <v>131525</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>90202</v>
       </c>
@@ -4880,7 +4890,7 @@
         <v>148483</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>90202</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>37307</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>90202</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>18897</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>90203</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>153853</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>90203</v>
       </c>
@@ -5440,7 +5450,7 @@
         <v>123109</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>90203</v>
       </c>
@@ -5580,7 +5590,7 @@
         <v>133414</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>90203</v>
       </c>
@@ -5720,7 +5730,7 @@
         <v>33626</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>90203</v>
       </c>
@@ -5860,7 +5870,7 @@
         <v>15708</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>90204</v>
       </c>
@@ -6000,7 +6010,7 @@
         <v>163052</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>90204</v>
       </c>
@@ -6140,7 +6150,7 @@
         <v>134175</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>90204</v>
       </c>
@@ -6280,7 +6290,7 @@
         <v>123407</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>90204</v>
       </c>
@@ -6420,7 +6430,7 @@
         <v>35645</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>90204</v>
       </c>
@@ -6560,7 +6570,7 @@
         <v>16043</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>90205</v>
       </c>
@@ -6700,7 +6710,7 @@
         <v>289053</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>90205</v>
       </c>
@@ -6840,7 +6850,7 @@
         <v>216423</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>90205</v>
       </c>
@@ -6980,7 +6990,7 @@
         <v>187367</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>90205</v>
       </c>
@@ -7120,7 +7130,7 @@
         <v>53870</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>90205</v>
       </c>
@@ -7260,7 +7270,7 @@
         <v>26155</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>90206</v>
       </c>
@@ -7400,7 +7410,7 @@
         <v>186618</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>90206</v>
       </c>
@@ -7540,7 +7550,7 @@
         <v>162764</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>90206</v>
       </c>
@@ -7680,7 +7690,7 @@
         <v>155490</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>90206</v>
       </c>
@@ -7820,7 +7830,7 @@
         <v>40878</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>90206</v>
       </c>
@@ -7960,7 +7970,7 @@
         <v>20555</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>90207</v>
       </c>
@@ -8100,7 +8110,7 @@
         <v>272763</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>90207</v>
       </c>
@@ -8240,7 +8250,7 @@
         <v>212170</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>90207</v>
       </c>
@@ -8380,7 +8390,7 @@
         <v>213191</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>90207</v>
       </c>
@@ -8520,7 +8530,7 @@
         <v>55561</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>90207</v>
       </c>
@@ -8660,7 +8670,7 @@
         <v>25155</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>90300</v>
       </c>
@@ -8800,7 +8810,7 @@
         <v>875221</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>90300</v>
       </c>
@@ -8940,7 +8950,7 @@
         <v>399282</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>90300</v>
       </c>
@@ -9080,7 +9090,7 @@
         <v>263670</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>90300</v>
       </c>
@@ -9220,7 +9230,7 @@
         <v>148663</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>90300</v>
       </c>
@@ -9360,7 +9370,7 @@
         <v>83607</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>90400</v>
       </c>
@@ -9500,7 +9510,7 @@
         <v>405779</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>90400</v>
       </c>
@@ -9640,7 +9650,7 @@
         <v>378386</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>90400</v>
       </c>
@@ -9780,7 +9790,7 @@
         <v>248080</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>90400</v>
       </c>
@@ -9920,7 +9930,7 @@
         <v>95917</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>90400</v>
       </c>
@@ -10060,7 +10070,7 @@
         <v>37124</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>90500</v>
       </c>
@@ -10200,7 +10210,7 @@
         <v>148757</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>90500</v>
       </c>
@@ -10340,7 +10350,7 @@
         <v>83812</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>90500</v>
       </c>
@@ -10480,7 +10490,7 @@
         <v>56749</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>90500</v>
       </c>
@@ -10620,7 +10630,7 @@
         <v>24669</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>90500</v>
       </c>
@@ -10760,7 +10770,7 @@
         <v>15178</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>90600</v>
       </c>
@@ -10900,7 +10910,7 @@
         <v>405646</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>90600</v>
       </c>
@@ -11040,7 +11050,7 @@
         <v>205059</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>90600</v>
       </c>
@@ -11180,7 +11190,7 @@
         <v>149584</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>90600</v>
       </c>
@@ -11320,7 +11330,7 @@
         <v>63846</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>90600</v>
       </c>
@@ -11460,7 +11470,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>90701</v>
       </c>
@@ -11600,7 +11610,7 @@
         <v>645572</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>90701</v>
       </c>
@@ -11740,7 +11750,7 @@
         <v>463051</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>90701</v>
       </c>
@@ -11880,7 +11890,7 @@
         <v>401932</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>90701</v>
       </c>
@@ -12020,7 +12030,7 @@
         <v>124542</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>90701</v>
       </c>
@@ -12160,7 +12170,7 @@
         <v>73736</v>
       </c>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>90702</v>
       </c>
@@ -12300,7 +12310,7 @@
         <v>146892</v>
       </c>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>90702</v>
       </c>
@@ -12440,7 +12450,7 @@
         <v>123653</v>
       </c>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>90702</v>
       </c>
@@ -12580,7 +12590,7 @@
         <v>116951</v>
       </c>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>90702</v>
       </c>
@@ -12720,7 +12730,7 @@
         <v>34443</v>
       </c>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>90702</v>
       </c>
@@ -12860,7 +12870,7 @@
         <v>21323</v>
       </c>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>90703</v>
       </c>
@@ -13000,7 +13010,7 @@
         <v>184045</v>
       </c>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>90703</v>
       </c>
@@ -13140,7 +13150,7 @@
         <v>157967</v>
       </c>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>90703</v>
       </c>
@@ -13280,7 +13290,7 @@
         <v>134660</v>
       </c>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90703</v>
       </c>
@@ -13420,7 +13430,7 @@
         <v>39744</v>
       </c>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90703</v>
       </c>
@@ -13560,7 +13570,7 @@
         <v>19894</v>
       </c>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90800</v>
       </c>
@@ -13700,7 +13710,7 @@
         <v>296645</v>
       </c>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90800</v>
       </c>
@@ -13840,7 +13850,7 @@
         <v>250813</v>
       </c>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90800</v>
       </c>
@@ -13980,7 +13990,7 @@
         <v>151509</v>
       </c>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>90800</v>
       </c>
@@ -14120,7 +14130,7 @@
         <v>63046</v>
       </c>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>90800</v>
       </c>
@@ -14260,7 +14270,7 @@
         <v>25267</v>
       </c>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>90901</v>
       </c>
@@ -14400,7 +14410,7 @@
         <v>274356</v>
       </c>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>90901</v>
       </c>
@@ -14540,7 +14550,7 @@
         <v>214838</v>
       </c>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>90901</v>
       </c>
@@ -14680,7 +14690,7 @@
         <v>166211</v>
       </c>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>90901</v>
       </c>
@@ -14820,7 +14830,7 @@
         <v>52242</v>
       </c>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>90901</v>
       </c>
@@ -14960,7 +14970,7 @@
         <v>24695</v>
       </c>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>90902</v>
       </c>
@@ -15100,7 +15110,7 @@
         <v>376003</v>
       </c>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>90902</v>
       </c>
@@ -15240,7 +15250,7 @@
         <v>279145</v>
       </c>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>90902</v>
       </c>
@@ -15380,7 +15390,7 @@
         <v>219064</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>90902</v>
       </c>
@@ -15520,7 +15530,7 @@
         <v>70652</v>
       </c>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>90902</v>
       </c>
@@ -15660,7 +15670,7 @@
         <v>32013</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>90903</v>
       </c>
@@ -15800,7 +15810,7 @@
         <v>229042</v>
       </c>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>90903</v>
       </c>
@@ -15940,7 +15950,7 @@
         <v>225730</v>
       </c>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>90903</v>
       </c>
@@ -16080,7 +16090,7 @@
         <v>187430</v>
       </c>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>90903</v>
       </c>
@@ -16220,7 +16230,7 @@
         <v>53588</v>
       </c>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>90903</v>
       </c>
@@ -16360,7 +16370,7 @@
         <v>24824</v>
       </c>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>90904</v>
       </c>
@@ -16500,7 +16510,7 @@
         <v>326154</v>
       </c>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>90904</v>
       </c>
@@ -16640,7 +16650,7 @@
         <v>299806</v>
       </c>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>90904</v>
       </c>
@@ -16780,7 +16790,7 @@
         <v>285747</v>
       </c>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>90904</v>
       </c>
@@ -16920,7 +16930,7 @@
         <v>75119</v>
       </c>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>90904</v>
       </c>
@@ -17060,7 +17070,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>91001</v>
       </c>
@@ -17200,7 +17210,7 @@
         <v>969846</v>
       </c>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>91001</v>
       </c>
@@ -17340,7 +17350,7 @@
         <v>684339</v>
       </c>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>91001</v>
       </c>
@@ -17480,7 +17490,7 @@
         <v>520364</v>
       </c>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>91001</v>
       </c>
@@ -17620,7 +17630,7 @@
         <v>172128</v>
       </c>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>91001</v>
       </c>
@@ -17760,7 +17770,7 @@
         <v>71819</v>
       </c>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>91002</v>
       </c>
@@ -17900,7 +17910,7 @@
         <v>753491</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>91002</v>
       </c>
@@ -18040,7 +18050,7 @@
         <v>543326</v>
       </c>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>91002</v>
       </c>
@@ -18180,7 +18190,7 @@
         <v>458761</v>
       </c>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>91002</v>
       </c>
@@ -18320,7 +18330,7 @@
         <v>143810</v>
       </c>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>91002</v>
       </c>
@@ -18460,7 +18470,7 @@
         <v>74918</v>
       </c>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>91003</v>
       </c>
@@ -18600,7 +18610,7 @@
         <v>387451</v>
       </c>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>91003</v>
       </c>
@@ -18740,7 +18750,7 @@
         <v>316040</v>
       </c>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>91003</v>
       </c>
@@ -18880,7 +18890,7 @@
         <v>296819</v>
       </c>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>91003</v>
       </c>
@@ -19020,7 +19030,7 @@
         <v>79938</v>
       </c>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>91003</v>
       </c>
@@ -19160,7 +19170,7 @@
         <v>43562</v>
       </c>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>91004</v>
       </c>
@@ -19300,7 +19310,7 @@
         <v>299146</v>
       </c>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>91004</v>
       </c>
@@ -19440,7 +19450,7 @@
         <v>242746</v>
       </c>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>91004</v>
       </c>
@@ -19580,7 +19590,7 @@
         <v>236810</v>
       </c>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>91004</v>
       </c>
@@ -19720,7 +19730,7 @@
         <v>65335</v>
       </c>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>91004</v>
       </c>
@@ -19860,7 +19870,7 @@
         <v>32630</v>
       </c>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>91005</v>
       </c>
@@ -20000,7 +20010,7 @@
         <v>632882</v>
       </c>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>91005</v>
       </c>
@@ -20140,7 +20150,7 @@
         <v>471000</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>91005</v>
       </c>
@@ -20280,7 +20290,7 @@
         <v>387289</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>91005</v>
       </c>
@@ -20420,7 +20430,7 @@
         <v>118631</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>91005</v>
       </c>
@@ -20560,7 +20570,7 @@
         <v>52616</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>91101</v>
       </c>
@@ -20700,7 +20710,7 @@
         <v>205079</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>91101</v>
       </c>
@@ -20840,7 +20850,7 @@
         <v>196718</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>91101</v>
       </c>
@@ -20980,7 +20990,7 @@
         <v>171405</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>91101</v>
       </c>
@@ -21120,7 +21130,7 @@
         <v>47581</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>91101</v>
       </c>
@@ -21260,7 +21270,7 @@
         <v>21352</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>91102</v>
       </c>
@@ -21400,7 +21410,7 @@
         <v>77681</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>91102</v>
       </c>
@@ -21540,7 +21550,7 @@
         <v>64566</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>91102</v>
       </c>
@@ -21680,7 +21690,7 @@
         <v>59579</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>91102</v>
       </c>
@@ -21820,7 +21830,7 @@
         <v>16227</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>91102</v>
       </c>
@@ -21960,7 +21970,7 @@
         <v>9208</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>91103</v>
       </c>
@@ -22100,7 +22110,7 @@
         <v>304451</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>91103</v>
       </c>
@@ -22240,7 +22250,7 @@
         <v>258744</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>91103</v>
       </c>
@@ -22380,7 +22390,7 @@
         <v>222336</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>91103</v>
       </c>
@@ -22520,7 +22530,7 @@
         <v>65460</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>91103</v>
       </c>
@@ -22660,7 +22670,7 @@
         <v>35738</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>91200</v>
       </c>
@@ -22800,7 +22810,7 @@
         <v>160822</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>91200</v>
       </c>
@@ -22940,7 +22950,7 @@
         <v>130373</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>91200</v>
       </c>
@@ -23080,7 +23090,7 @@
         <v>110153</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>91200</v>
       </c>
@@ -23220,7 +23230,7 @@
         <v>37340</v>
       </c>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>91200</v>
       </c>
@@ -23360,7 +23370,7 @@
         <v>17031</v>
       </c>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>91302</v>
       </c>
@@ -23500,7 +23510,7 @@
         <v>301852</v>
       </c>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>91302</v>
       </c>
@@ -23640,7 +23650,7 @@
         <v>248478</v>
       </c>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>91302</v>
       </c>
@@ -23780,7 +23790,7 @@
         <v>154134</v>
       </c>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>91302</v>
       </c>
@@ -23920,7 +23930,7 @@
         <v>54780</v>
       </c>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>91302</v>
       </c>
@@ -24060,7 +24070,7 @@
         <v>22783</v>
       </c>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>91304</v>
       </c>
@@ -24200,7 +24210,7 @@
         <v>282389</v>
       </c>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>91304</v>
       </c>
@@ -24340,7 +24350,7 @@
         <v>248849</v>
       </c>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>91304</v>
       </c>
@@ -24480,7 +24490,7 @@
         <v>146265</v>
       </c>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>91304</v>
       </c>
@@ -24620,7 +24630,7 @@
         <v>49687</v>
       </c>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>91304</v>
       </c>
@@ -24760,7 +24770,7 @@
         <v>15336</v>
       </c>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>91305</v>
       </c>
@@ -24900,7 +24910,7 @@
         <v>208276</v>
       </c>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>91305</v>
       </c>
@@ -25040,7 +25050,7 @@
         <v>147201</v>
       </c>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>91305</v>
       </c>
@@ -25180,7 +25190,7 @@
         <v>87103</v>
       </c>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>91305</v>
       </c>
@@ -25320,7 +25330,7 @@
         <v>36759</v>
       </c>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>91305</v>
       </c>
@@ -25460,7 +25470,7 @@
         <v>15793</v>
       </c>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>91400</v>
       </c>
@@ -25600,7 +25610,7 @@
         <v>413969</v>
       </c>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>91400</v>
       </c>
@@ -25740,7 +25750,7 @@
         <v>357621</v>
       </c>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>91400</v>
       </c>
@@ -25880,7 +25890,7 @@
         <v>217774</v>
       </c>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>91400</v>
       </c>
@@ -26020,7 +26030,7 @@
         <v>89771</v>
       </c>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>91400</v>
       </c>
@@ -26160,7 +26170,7 @@
         <v>35056</v>
       </c>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>91500</v>
       </c>
@@ -26300,7 +26310,7 @@
         <v>465933</v>
       </c>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>91500</v>
       </c>
@@ -26440,7 +26450,7 @@
         <v>389732</v>
       </c>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>91500</v>
       </c>
@@ -26580,7 +26590,7 @@
         <v>289298</v>
       </c>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>91500</v>
       </c>
@@ -26720,7 +26730,7 @@
         <v>91945</v>
       </c>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>91500</v>
       </c>
@@ -26860,7 +26870,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>91600</v>
       </c>
@@ -27000,7 +27010,7 @@
         <v>372836</v>
       </c>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>91600</v>
       </c>
@@ -27140,7 +27150,7 @@
         <v>318631</v>
       </c>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>91600</v>
       </c>
@@ -27280,7 +27290,7 @@
         <v>220182</v>
       </c>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>91600</v>
       </c>
@@ -27420,7 +27430,7 @@
         <v>86785</v>
       </c>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>91600</v>
       </c>
@@ -27560,7 +27570,7 @@
         <v>39800</v>
       </c>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>90101</v>
       </c>
@@ -27700,7 +27710,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>90102</v>
       </c>
@@ -27840,7 +27850,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>90103</v>
       </c>
@@ -27980,7 +27990,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>90104</v>
       </c>
@@ -28120,7 +28130,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>90201</v>
       </c>
@@ -28260,7 +28270,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>90202</v>
       </c>
@@ -28400,7 +28410,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>90203</v>
       </c>
@@ -28540,7 +28550,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>90204</v>
       </c>
@@ -28680,7 +28690,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>90205</v>
       </c>
@@ -28820,7 +28830,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>90206</v>
       </c>
@@ -28960,7 +28970,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>90207</v>
       </c>
@@ -29100,7 +29110,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>90300</v>
       </c>
@@ -29240,7 +29250,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>90400</v>
       </c>
@@ -29380,7 +29390,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>90500</v>
       </c>
@@ -29520,7 +29530,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>90600</v>
       </c>
@@ -29660,7 +29670,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>90701</v>
       </c>
@@ -29800,7 +29810,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>90702</v>
       </c>
@@ -29940,7 +29950,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>90703</v>
       </c>
@@ -30080,7 +30090,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>90800</v>
       </c>
@@ -30220,7 +30230,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>90901</v>
       </c>
@@ -30360,7 +30370,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>90902</v>
       </c>
@@ -30500,7 +30510,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>90903</v>
       </c>
@@ -30640,7 +30650,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>90904</v>
       </c>
@@ -30780,7 +30790,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>91001</v>
       </c>
@@ -30920,7 +30930,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>91002</v>
       </c>
@@ -31060,7 +31070,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>91003</v>
       </c>
@@ -31200,7 +31210,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>91004</v>
       </c>
@@ -31340,7 +31350,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>91005</v>
       </c>
@@ -31480,7 +31490,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>91101</v>
       </c>
@@ -31620,7 +31630,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>91102</v>
       </c>
@@ -31760,7 +31770,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>91103</v>
       </c>
@@ -31900,7 +31910,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>91200</v>
       </c>
@@ -32040,7 +32050,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>91302</v>
       </c>
@@ -32180,7 +32190,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>91304</v>
       </c>
@@ -32320,7 +32330,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>91305</v>
       </c>
@@ -32460,7 +32470,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>91400</v>
       </c>
@@ -32600,7 +32610,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>91500</v>
       </c>
@@ -32740,7 +32750,7 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>91600</v>
       </c>
@@ -32891,19 +32901,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E9DD9-152E-1944-A8CF-F213F6599C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -33043,7 +33053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>90101</v>
       </c>
@@ -33215,7 +33225,7 @@
         <v>702072.36100912979</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>90101</v>
       </c>
@@ -33387,7 +33397,7 @@
         <v>567384.2568660141</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>90101</v>
       </c>
@@ -33559,7 +33569,7 @@
         <v>539638.19106449955</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>90101</v>
       </c>
@@ -33731,7 +33741,7 @@
         <v>134036.66152727816</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90101</v>
       </c>
@@ -33903,7 +33913,7 @@
         <v>75840.340072895662</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>90101</v>
       </c>
@@ -34052,18 +34062,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6C3587-BAF8-2F4A-9235-8035B0E0CE80}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
